--- a/backboneAuth-oa1-infra/src/main/resources/Template取引ロール編成.xlsx
+++ b/backboneAuth-oa1-infra/src/main/resources/Template取引ロール編成.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80-ry-saito\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EA381-8E4B-45E6-B6DE-338ED111C08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE49BC57-9898-4929-A8A4-6D2BB5F030D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="0" windowWidth="22335" windowHeight="13950" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18645" windowHeight="14265" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="取引ロール＋取引グループ" sheetId="91" r:id="rId1"/>
-    <sheet name="取引グループ＋取引" sheetId="74" r:id="rId2"/>
+    <sheet name="取引ロール－取引グループ編成" sheetId="91" r:id="rId1"/>
+    <sheet name="取引グループ－取引編成" sheetId="74" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'取引グループ＋取引'!$A$2:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'取引ロール＋取引グループ'!$A$2:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'取引グループ－取引編成'!$A$2:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'取引ロール－取引グループ編成'!$A$2:$E$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1014,6 +1014,12 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1046,12 +1052,6 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="167">
@@ -1637,20 +1637,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1">
-      <c r="A2" s="18"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1724,18 +1724,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1744,7 +1744,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="18"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="28"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1774,7 +1774,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
